--- a/medicine/Premiers secours et secourisme/Ministère_des_Situations_d'urgence_(Biélorussie)/Ministère_des_Situations_d'urgence_(Biélorussie).xlsx
+++ b/medicine/Premiers secours et secourisme/Ministère_des_Situations_d'urgence_(Biélorussie)/Ministère_des_Situations_d'urgence_(Biélorussie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_des_Situations_d%27urgence_(Bi%C3%A9lorussie)</t>
+          <t>Ministère_des_Situations_d'urgence_(Biélorussie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère des situations d'urgence de la Biélorussie (biélorusse : Міністэрства па надзвычайных сітуацыях) est une agence gouvernementale qui supervise les services d'urgence de la Biélorussie Elle est chargée de protéger la population bélarussienne en cas de catastrophe naturelle. Il est situé dans la rue Revaliucyjnaja à Minsk. Le ministère des situations d'urgence a été créé en vertu d'un décret du président Alexandre Loukachenko le 23 septembre 1994[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère des situations d'urgence de la Biélorussie (biélorusse : Міністэрства па надзвычайных сітуацыях) est une agence gouvernementale qui supervise les services d'urgence de la Biélorussie Elle est chargée de protéger la population bélarussienne en cas de catastrophe naturelle. Il est situé dans la rue Revaliucyjnaja à Minsk. Le ministère des situations d'urgence a été créé en vertu d'un décret du président Alexandre Loukachenko le 23 septembre 1994.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_des_Situations_d%27urgence_(Bi%C3%A9lorussie)</t>
+          <t>Ministère_des_Situations_d'urgence_(Biélorussie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le ministère exerce les fonctions suivantes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le ministère exerce les fonctions suivantes :
 Contrôle et gestion dans le domaine de la prévention et de la liquidation des situations d'urgence liées à des catastrophes naturelles ou causées par l'homme et de la défense civile
 Assurer la sécurité incendie, industrielle, nucléaire et radiologique
 Gérer les conséquences de la catastrophe de Tchernobyl
